--- a/InterviewTest/output/230413/230413_failed.xlsx
+++ b/InterviewTest/output/230413/230413_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDC2472-BBE1-4132-812F-5BC43E312DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E24BC-BCEA-42ED-9735-2246706D10E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>Example:  HOA_CH: 10.4</t>
+    <t>Example:  HOA_CH: 20.4</t>
   </si>
   <si>
     <t>Fail</t>

--- a/InterviewTest/output/230413/230413_failed.xlsx
+++ b/InterviewTest/output/230413/230413_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230413\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E24BC-BCEA-42ED-9735-2246706D10E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA64ED-1C78-4B69-8175-E241BF05E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>39602</v>
+        <v>39513</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" customHeight="1" thickBot="1">

--- a/InterviewTest/output/230413/230413_failed.xlsx
+++ b/InterviewTest/output/230413/230413_failed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Documents\UiPath\MemoAgilityTest\InterviewTest\output\230413\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230413\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABA64ED-1C78-4B69-8175-E241BF05E75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4300BFF-F653-44B6-8D0B-24E41AB369F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="22410" windowHeight="18675" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
